--- a/biology/Botanique/Lardizabala/Lardizabala.xlsx
+++ b/biology/Botanique/Lardizabala/Lardizabala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Lardizabala Ruiz &amp; Pav., 1794 est un genre monotypique qui comprend une espèce de plante grimpante, appartenant à la famille des Lardizabalaceae. Son unique espèce type est Lardizabala biternata Ruiz &amp; Pav., 1798.  Devenu synonyme de L.funaria (Molina).  Le genre est consacré à Miguel de Lardizábal y Uribe(1744-1824), homme politique espagnol et protecteur de la Botanique.
 Le genre est appelé "bejuco sudamericano" (liane sud-américaine), c'est un nom partagé avec le genre Boquila.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Avec les caractères généraux de la famille Lardizabalaceae.
 Grimpante ligneuse, voluble (sens horaire), feuilles persistantes, glabre.
@@ -548,7 +562,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle prospère jusqu'à 1 500 m. C'est une plante auto-incompatible.
 </t>
@@ -579,7 +595,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce endémique du Chili, que l'on trouve depuis la Région de Valparaíso jusqu'à la région de Los Lagos, y compris dans l'Archipel de Juan Fernández.
 </t>
@@ -610,7 +628,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Fruit comestible, et tiges utilisées en vannerie.
 </t>
@@ -641,7 +661,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cogylia Molina, 1810. Espèce type: Cogylia ternata Molina, 1810.(Mais devenu synonyme de Lardizabala funaria (Molina) Looser )</t>
         </is>
@@ -671,7 +693,9 @@
           <t>Taxons Spécifiques compris</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le genre comprend une espèce unique, communément appelé au Chili ; cogüilera, coille ou voqui cógüil (ses fruits se dénomment cógüiles):
 Lardizabala funaria   (Molina, 1782) Looser, 1934
@@ -712,7 +736,9 @@
           <t>Noms communs</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Au Chili :
 coguillvochi, coguillvoqui, voqui Blanc.</t>
